--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -104,7 +104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -302,13 +302,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -665,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27.75" customFormat="1" s="1">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -695,15 +695,15 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="62.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17">
-        <v>44653</v>
-      </c>
-      <c r="C3" s="17">
-        <v>44655</v>
+      <c r="B3" s="11">
+        <v>44656</v>
+      </c>
+      <c r="C3" s="11">
+        <v>44656</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>

--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cybersoft\Github\BC29_Diner_Nhom20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -59,16 +64,40 @@
   </si>
   <si>
     <t>vmcuong</t>
+  </si>
+  <si>
+    <t>minor header background change, add responsive for header text,fixed booking__right overflow, add some change to video modal</t>
+  </si>
+  <si>
+    <t>finished initial js for light/dark mode, changed position for video play button, minor changes to blog and testimonial sections</t>
+  </si>
+  <si>
+    <t>fixed video position</t>
+  </si>
+  <si>
+    <t>added initial js for light/dark mode</t>
+  </si>
+  <si>
+    <t>edited responsive for categories</t>
+  </si>
+  <si>
+    <t>Updated video link</t>
+  </si>
+  <si>
+    <t>fixed padding for video section, fixed video play button position, modified modal position for video, added responsive for modal video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated whole js </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,36 +106,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF363636"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -118,26 +139,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdfe3e8"/>
+        <fgColor rgb="FFDFE3E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe2efd9"/>
+        <fgColor rgb="FFE2EFD9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -149,35 +170,35 @@
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thick">
         <color rgb="FF000000"/>
@@ -185,7 +206,7 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -194,41 +215,86 @@
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFcccccc"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFcccccc"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFcccccc"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -239,89 +305,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,10 +410,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -373,71 +451,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,7 +543,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -488,11 +566,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -501,13 +579,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -517,7 +595,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -526,7 +604,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,7 +613,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,10 +621,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -615,249 +693,358 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="6.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="23" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="21" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="58.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.75" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27.75" customFormat="1" s="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="15">
         <v>44657</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="15">
         <v>44657</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="15">
         <v>44657</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="15">
         <v>44657</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="18">
         <v>0.95</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="15"/>
+      <c r="I2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75" customFormat="1" s="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="15">
         <v>44656</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="15">
         <v>44656</v>
       </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <v>44656</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="15">
         <v>44656</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="18">
         <v>0.95</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15">
+        <v>44662</v>
+      </c>
+      <c r="C4" s="15">
+        <v>44662</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="15">
+        <v>44662</v>
+      </c>
+      <c r="G4" s="15">
+        <v>44662</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="15"/>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="15">
+        <v>44663</v>
+      </c>
+      <c r="C5" s="15">
+        <v>44663</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="15">
+        <v>44663</v>
+      </c>
+      <c r="G5" s="15">
+        <v>44663</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44664</v>
+      </c>
+      <c r="C6" s="15">
+        <v>44664</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15">
+        <v>44664</v>
+      </c>
+      <c r="G6" s="15">
+        <v>44664</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15">
+        <v>44665</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44665</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15">
+        <v>44665</v>
+      </c>
+      <c r="G7" s="15">
+        <v>44665</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15">
+        <v>44665</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44665</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15">
+        <v>44665</v>
+      </c>
+      <c r="G8" s="15">
+        <v>44665</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15">
+        <v>44666</v>
+      </c>
+      <c r="C9" s="15">
+        <v>44666</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15">
+        <v>44666</v>
+      </c>
+      <c r="G9" s="15">
+        <v>44666</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44667</v>
+      </c>
+      <c r="C10" s="15">
+        <v>44667</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15">
+        <v>44667</v>
+      </c>
+      <c r="G10" s="15">
+        <v>44667</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="19"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="15"/>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="23">
+        <v>44683</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44683</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="23">
+        <v>44683</v>
+      </c>
+      <c r="G11" s="23">
+        <v>44683</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>